--- a/bulletin/macroeconomics/static/macroeconomics/tables/diversified_and_innovative_economy.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/diversified_and_innovative_economy.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A21408-9F10-4869-BE5C-E1903C644387}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t xml:space="preserve">Стратегический </t>
-  </si>
-  <si>
-    <t>показатель</t>
-  </si>
-  <si>
     <t>ед. изм.</t>
   </si>
   <si>
@@ -248,13 +241,16 @@
   </si>
   <si>
     <t>-         - Транспорт и складирование</t>
+  </si>
+  <si>
+    <t>Стратегический  показатель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -382,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -559,103 +555,104 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N110"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1">
         <v>2020</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>9381</v>
@@ -679,9 +676,9 @@
         <v>14648</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>7244</v>
@@ -705,9 +702,9 @@
         <v>13125</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>8615</v>
@@ -731,9 +728,9 @@
         <v>13539</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>4179</v>
@@ -757,9 +754,9 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>31041</v>
@@ -783,9 +780,9 @@
         <v>40323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>11412</v>
@@ -809,9 +806,9 @@
         <v>17034</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>3994</v>
@@ -835,9 +832,9 @@
         <v>6702</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>9835</v>
@@ -861,9 +858,9 @@
         <v>16297</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>7813</v>
@@ -887,9 +884,9 @@
         <v>14128</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>4977</v>
@@ -913,9 +910,9 @@
         <v>6992</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>12076</v>
@@ -939,9 +936,9 @@
         <v>16025</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>10009</v>
@@ -965,9 +962,9 @@
         <v>17922</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>6771</v>
@@ -991,9 +988,9 @@
         <v>12901</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>2899</v>
@@ -1017,9 +1014,9 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>7608</v>
@@ -1043,9 +1040,9 @@
         <v>14047</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>18214</v>
@@ -1069,9 +1066,9 @@
         <v>25173</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>17950</v>
@@ -1095,9 +1092,9 @@
         <v>27478</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>5737</v>
@@ -1121,15 +1118,15 @@
         <v>9371</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>26791</v>
@@ -1153,15 +1150,15 @@
         <v>36245</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>-2.6</v>
@@ -1185,14 +1182,14 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>7.6</v>
@@ -1216,9 +1213,9 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>-5.7</v>
@@ -1227,7 +1224,7 @@
         <v>8.5</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>21.9</v>
@@ -1242,9 +1239,9 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>-2</v>
@@ -1268,9 +1265,9 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>10.3</v>
@@ -1294,12 +1291,12 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>16.8</v>
@@ -1320,9 +1317,9 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>11.4</v>
@@ -1346,9 +1343,9 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>-9.9</v>
@@ -1372,9 +1369,9 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>-14.8</v>
@@ -1398,9 +1395,9 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>-9</v>
@@ -1424,9 +1421,9 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>10.199999999999999</v>
@@ -1450,9 +1447,9 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>6.5</v>
@@ -1476,9 +1473,9 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>-3</v>
@@ -1502,9 +1499,9 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>2.8</v>
@@ -1528,9 +1525,9 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>-3.6</v>
@@ -1554,9 +1551,9 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>-0.1</v>
@@ -1580,9 +1577,9 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>4.3</v>
@@ -1606,9 +1603,9 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>2.4</v>
@@ -1632,9 +1629,9 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>1.5</v>
@@ -1658,9 +1655,9 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45">
         <v>-10.5</v>
@@ -1684,9 +1681,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>-5.0999999999999996</v>
@@ -1710,9 +1707,9 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47">
         <v>-0.5</v>
@@ -1736,9 +1733,9 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>1.5</v>
@@ -1762,9 +1759,9 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49">
         <v>9.4</v>
@@ -1788,9 +1785,9 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="B50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>1.9</v>
@@ -1814,9 +1811,9 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>-4.0999999999999996</v>
@@ -1840,9 +1837,9 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="B52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>-8.9</v>
@@ -1866,9 +1863,9 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="B53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>0.4</v>
@@ -1892,15 +1889,15 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>8.5</v>
@@ -1909,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I54">
         <v>6.5</v>
@@ -1921,20 +1918,20 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>8.6999999999999993</v>
@@ -1958,9 +1955,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>11.5</v>
@@ -1984,9 +1981,9 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>6.3</v>
@@ -2010,9 +2007,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="B59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>12.2</v>
@@ -2036,9 +2033,9 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="B60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>4.3</v>
@@ -2062,9 +2059,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="B61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>8.5</v>
@@ -2088,9 +2085,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="B62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>6.5</v>
@@ -2114,9 +2111,9 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>4.0999999999999996</v>
@@ -2140,9 +2137,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="B64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>10.9</v>
@@ -2166,9 +2163,9 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>6.3</v>
@@ -2192,9 +2189,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66">
         <v>8.6999999999999993</v>
@@ -2218,9 +2215,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>5.2</v>
@@ -2244,9 +2241,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="B68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68">
         <v>12.4</v>
@@ -2270,9 +2267,9 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>7.1</v>
@@ -2296,9 +2293,9 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D70">
         <v>6.7</v>
@@ -2322,9 +2319,9 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71">
         <v>14.1</v>
@@ -2348,9 +2345,9 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="B72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>11.3</v>
@@ -2374,41 +2371,41 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="B73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73">
         <v>9.1999999999999993</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>17.399999999999999</v>
@@ -2432,14 +2429,14 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="B76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D76">
         <v>15</v>
@@ -2463,9 +2460,9 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="B77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D77">
         <v>8.1</v>
@@ -2474,7 +2471,7 @@
         <v>19.7</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>33.5</v>
@@ -2489,9 +2486,9 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="B78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D78">
         <v>-26.4</v>
@@ -2515,9 +2512,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="B79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2541,12 +2538,12 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="B80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E80">
         <v>-13.3</v>
@@ -2567,9 +2564,9 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13">
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D81">
         <v>-35.799999999999997</v>
@@ -2593,9 +2590,9 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D82">
         <v>-23.7</v>
@@ -2619,9 +2616,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13">
       <c r="B83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D83">
         <v>4.9000000000000004</v>
@@ -2645,9 +2642,9 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D84">
         <v>-3.9</v>
@@ -2671,9 +2668,9 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13">
       <c r="B85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D85">
         <v>35.5</v>
@@ -2697,9 +2694,9 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13">
       <c r="B86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <v>44.2</v>
@@ -2723,9 +2720,9 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13">
       <c r="B87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87">
         <v>140</v>
@@ -2749,9 +2746,9 @@
         <v>372.2</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>26.3</v>
@@ -2775,9 +2772,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13">
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89">
         <v>6.6</v>
@@ -2801,9 +2798,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13">
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -2827,9 +2824,9 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13">
       <c r="B91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>-24.3</v>
@@ -2853,9 +2850,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13">
       <c r="B92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>-21.6</v>
@@ -2879,9 +2876,9 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13">
       <c r="B93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D93">
         <v>12.7</v>
@@ -2905,9 +2902,9 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13">
       <c r="B94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>-16.7</v>
@@ -2931,9 +2928,9 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13">
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <v>11</v>
@@ -2957,9 +2954,9 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13">
       <c r="B96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D96">
         <v>-26</v>
@@ -2983,9 +2980,9 @@
         <v>190.7</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="B97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97">
         <v>2.9</v>
@@ -3009,9 +3006,9 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="B98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D98">
         <v>-1.8</v>
@@ -3035,9 +3032,9 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="B99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D99">
         <v>20.5</v>
@@ -3061,9 +3058,9 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="B100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D100">
         <v>59.4</v>
@@ -3087,9 +3084,9 @@
         <v>248.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="B101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D101">
         <v>12</v>
@@ -3113,9 +3110,9 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102">
         <v>21.5</v>
@@ -3139,9 +3136,9 @@
         <v>246.7</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="B103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103">
         <v>17.2</v>
@@ -3165,9 +3162,9 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="B104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D104">
         <v>40.9</v>
@@ -3191,15 +3188,15 @@
         <v>317.2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D105" s="1">
         <v>45018</v>
@@ -3217,62 +3214,62 @@
         <v>41579</v>
       </c>
       <c r="K105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>8</v>
       </c>
       <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" t="s">
         <v>61</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>62</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>63</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
+        <v>62</v>
+      </c>
+      <c r="I106" t="s">
         <v>64</v>
       </c>
-      <c r="F106" t="s">
+      <c r="K106" t="s">
+        <v>64</v>
+      </c>
+      <c r="M106" t="s">
         <v>65</v>
       </c>
-      <c r="G106" t="s">
-        <v>64</v>
-      </c>
-      <c r="I106" t="s">
-        <v>66</v>
-      </c>
-      <c r="K106" t="s">
-        <v>66</v>
-      </c>
-      <c r="M106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E107">
         <v>90</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>85</v>
@@ -3287,15 +3284,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D108">
         <v>55.9</v>
@@ -3319,15 +3316,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D109">
         <v>8.6</v>
@@ -3351,15 +3348,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D110">
         <v>3</v>
